--- a/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,13 +1509,711 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>23.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.16</v>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2207,13 +2250,1487 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3418</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>23.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3661,7 +3662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3672,17 +3673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3692,14 +3713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.56</v>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3708,14 +3751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.16</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3724,13 +3789,3437 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8633</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8268</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002558</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002559</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>23.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>28.31</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>27.56</v>
+        <v>28.31</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>16.16</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23.11</v>
       </c>
     </row>
@@ -549,6 +566,2228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6328</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8887</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7365</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5915</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>103.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信澳产业升级混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4020,7 +6259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5520,7 +7759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6222,7 +8461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002176-江特电机.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>27.27</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>28.31</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>27.56</v>
+        <v>28.31</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>16.16</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23.11</v>
       </c>
     </row>
@@ -566,6 +583,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0499</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5229</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信澳产业升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159667</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159663</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2787,7 +4494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6259,7 +7966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7759,7 +9466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8461,7 +10168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
